--- a/teste_cnpj.xlsx
+++ b/teste_cnpj.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="1065">
   <si>
     <t>61377933000197</t>
   </si>
@@ -755,15 +755,9 @@
     <t>60936127000149</t>
   </si>
   <si>
-    <t>12361154811</t>
-  </si>
-  <si>
     <t>73187346000114</t>
   </si>
   <si>
-    <t>00001657086</t>
-  </si>
-  <si>
     <t>01545828004851</t>
   </si>
   <si>
@@ -875,9 +869,6 @@
     <t>65004277000219</t>
   </si>
   <si>
-    <t>88927814720</t>
-  </si>
-  <si>
     <t>00235809000100</t>
   </si>
   <si>
@@ -1406,9 +1397,6 @@
     <t>00498920000181</t>
   </si>
   <si>
-    <t>07705797798</t>
-  </si>
-  <si>
     <t>40174435000177</t>
   </si>
   <si>
@@ -2096,9 +2084,6 @@
     <t>04554158800129</t>
   </si>
   <si>
-    <t>10685698750</t>
-  </si>
-  <si>
     <t>08290164000102</t>
   </si>
   <si>
@@ -2330,9 +2315,6 @@
     <t>46516308000195</t>
   </si>
   <si>
-    <t>49739220720</t>
-  </si>
-  <si>
     <t>10780890000155</t>
   </si>
   <si>
@@ -2651,9 +2633,6 @@
     <t>01333074000102</t>
   </si>
   <si>
-    <t>70112000461</t>
-  </si>
-  <si>
     <t>33041260082209</t>
   </si>
   <si>
@@ -3180,9 +3159,6 @@
   </si>
   <si>
     <t>03060610000141</t>
-  </si>
-  <si>
-    <t>11775231117</t>
   </si>
   <si>
     <t>07327325000122</t>
@@ -3291,7 +3267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3299,6 +3275,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3579,51 +3559,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:H1116"/>
+  <dimension ref="C1:H1108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A1088" sqref="A1088:XFD1088"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
     <col min="8" max="8" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:8">
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="C1" s="3"/>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:8">
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="C2" s="3"/>
       <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="3:8">
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="H3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="3:8">
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C4" s="3"/>
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="3:8">
+      <c r="C5" s="4"/>
       <c r="H5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5075,22 +5048,22 @@
     </row>
     <row r="295" spans="8:8">
       <c r="H295" s="1" t="s">
-        <v>294</v>
+        <v>238</v>
       </c>
     </row>
     <row r="296" spans="8:8">
       <c r="H296" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="297" spans="8:8">
       <c r="H297" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="298" spans="8:8">
       <c r="H298" s="1" t="s">
-        <v>238</v>
+        <v>296</v>
       </c>
     </row>
     <row r="299" spans="8:8">
@@ -5510,37 +5483,37 @@
     </row>
     <row r="382" spans="8:8">
       <c r="H382" s="1" t="s">
-        <v>380</v>
+        <v>141</v>
       </c>
     </row>
     <row r="383" spans="8:8">
       <c r="H383" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="384" spans="8:8">
       <c r="H384" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="385" spans="8:8">
       <c r="H385" s="1" t="s">
-        <v>141</v>
+        <v>346</v>
       </c>
     </row>
     <row r="386" spans="8:8">
       <c r="H386" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="387" spans="8:8">
       <c r="H387" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="388" spans="8:8">
       <c r="H388" s="1" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
     </row>
     <row r="389" spans="8:8">
@@ -5565,22 +5538,22 @@
     </row>
     <row r="393" spans="8:8">
       <c r="H393" s="1" t="s">
-        <v>389</v>
+        <v>141</v>
       </c>
     </row>
     <row r="394" spans="8:8">
       <c r="H394" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="395" spans="8:8">
       <c r="H395" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="396" spans="8:8">
       <c r="H396" s="1" t="s">
-        <v>141</v>
+        <v>391</v>
       </c>
     </row>
     <row r="397" spans="8:8">
@@ -5675,22 +5648,22 @@
     </row>
     <row r="415" spans="8:8">
       <c r="H415" s="1" t="s">
-        <v>410</v>
+        <v>320</v>
       </c>
     </row>
     <row r="416" spans="8:8">
       <c r="H416" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="417" spans="8:8">
       <c r="H417" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="418" spans="8:8">
       <c r="H418" s="1" t="s">
-        <v>323</v>
+        <v>412</v>
       </c>
     </row>
     <row r="419" spans="8:8">
@@ -5845,22 +5818,22 @@
     </row>
     <row r="449" spans="8:8">
       <c r="H449" s="1" t="s">
-        <v>443</v>
+        <v>141</v>
       </c>
     </row>
     <row r="450" spans="8:8">
       <c r="H450" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="451" spans="8:8">
       <c r="H451" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="452" spans="8:8">
       <c r="H452" s="1" t="s">
-        <v>141</v>
+        <v>445</v>
       </c>
     </row>
     <row r="453" spans="8:8">
@@ -5925,27 +5898,27 @@
     </row>
     <row r="465" spans="8:8">
       <c r="H465" s="1" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="466" spans="8:8">
       <c r="H466" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="467" spans="8:8">
       <c r="H467" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="468" spans="8:8">
       <c r="H468" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="469" spans="8:8">
       <c r="H469" s="1" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="470" spans="8:8">
@@ -5990,27 +5963,27 @@
     </row>
     <row r="478" spans="8:8">
       <c r="H478" s="1" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
     </row>
     <row r="479" spans="8:8">
       <c r="H479" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="480" spans="8:8">
       <c r="H480" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="481" spans="8:8">
       <c r="H481" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="482" spans="8:8">
       <c r="H482" s="1" t="s">
-        <v>451</v>
+        <v>473</v>
       </c>
     </row>
     <row r="483" spans="8:8">
@@ -6210,27 +6183,27 @@
     </row>
     <row r="522" spans="8:8">
       <c r="H522" s="1" t="s">
-        <v>513</v>
+        <v>186</v>
       </c>
     </row>
     <row r="523" spans="8:8">
       <c r="H523" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="524" spans="8:8">
       <c r="H524" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="525" spans="8:8">
       <c r="H525" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="526" spans="8:8">
       <c r="H526" s="1" t="s">
-        <v>186</v>
+        <v>516</v>
       </c>
     </row>
     <row r="527" spans="8:8">
@@ -6440,42 +6413,42 @@
     </row>
     <row r="568" spans="8:8">
       <c r="H568" s="1" t="s">
-        <v>558</v>
+        <v>131</v>
       </c>
     </row>
     <row r="569" spans="8:8">
       <c r="H569" s="1" t="s">
-        <v>559</v>
+        <v>87</v>
       </c>
     </row>
     <row r="570" spans="8:8">
       <c r="H570" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="571" spans="8:8">
       <c r="H571" s="1" t="s">
-        <v>561</v>
+        <v>199</v>
       </c>
     </row>
     <row r="572" spans="8:8">
       <c r="H572" s="1" t="s">
-        <v>131</v>
+        <v>559</v>
       </c>
     </row>
     <row r="573" spans="8:8">
       <c r="H573" s="1" t="s">
-        <v>87</v>
+        <v>560</v>
       </c>
     </row>
     <row r="574" spans="8:8">
       <c r="H574" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="575" spans="8:8">
       <c r="H575" s="1" t="s">
-        <v>199</v>
+        <v>562</v>
       </c>
     </row>
     <row r="576" spans="8:8">
@@ -6500,27 +6473,27 @@
     </row>
     <row r="580" spans="8:8">
       <c r="H580" s="1" t="s">
-        <v>567</v>
+        <v>6</v>
       </c>
     </row>
     <row r="581" spans="8:8">
       <c r="H581" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="582" spans="8:8">
       <c r="H582" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="583" spans="8:8">
       <c r="H583" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="584" spans="8:8">
       <c r="H584" s="1" t="s">
-        <v>6</v>
+        <v>570</v>
       </c>
     </row>
     <row r="585" spans="8:8">
@@ -6580,27 +6553,27 @@
     </row>
     <row r="596" spans="8:8">
       <c r="H596" s="1" t="s">
-        <v>582</v>
+        <v>8</v>
       </c>
     </row>
     <row r="597" spans="8:8">
       <c r="H597" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="598" spans="8:8">
       <c r="H598" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="599" spans="8:8">
       <c r="H599" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="600" spans="8:8">
       <c r="H600" s="1" t="s">
-        <v>8</v>
+        <v>585</v>
       </c>
     </row>
     <row r="601" spans="8:8">
@@ -6940,27 +6913,27 @@
     </row>
     <row r="668" spans="8:8">
       <c r="H668" s="1" t="s">
-        <v>653</v>
+        <v>565</v>
       </c>
     </row>
     <row r="669" spans="8:8">
       <c r="H669" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="670" spans="8:8">
       <c r="H670" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="671" spans="8:8">
       <c r="H671" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="672" spans="8:8">
       <c r="H672" s="1" t="s">
-        <v>569</v>
+        <v>656</v>
       </c>
     </row>
     <row r="673" spans="8:8">
@@ -7180,32 +7153,32 @@
     </row>
     <row r="716" spans="8:8">
       <c r="H716" s="1" t="s">
-        <v>700</v>
+        <v>245</v>
       </c>
     </row>
     <row r="717" spans="8:8">
       <c r="H717" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="718" spans="8:8">
       <c r="H718" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="719" spans="8:8">
       <c r="H719" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="720" spans="8:8">
       <c r="H720" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="721" spans="8:8">
       <c r="H721" s="1" t="s">
-        <v>247</v>
+        <v>704</v>
       </c>
     </row>
     <row r="722" spans="8:8">
@@ -7275,32 +7248,32 @@
     </row>
     <row r="735" spans="8:8">
       <c r="H735" s="1" t="s">
-        <v>718</v>
+        <v>100</v>
       </c>
     </row>
     <row r="736" spans="8:8">
       <c r="H736" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="737" spans="8:8">
       <c r="H737" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="738" spans="8:8">
       <c r="H738" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="739" spans="8:8">
       <c r="H739" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="740" spans="8:8">
       <c r="H740" s="1" t="s">
-        <v>100</v>
+        <v>722</v>
       </c>
     </row>
     <row r="741" spans="8:8">
@@ -7415,32 +7388,32 @@
     </row>
     <row r="763" spans="8:8">
       <c r="H763" s="1" t="s">
-        <v>745</v>
+        <v>604</v>
       </c>
     </row>
     <row r="764" spans="8:8">
       <c r="H764" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="765" spans="8:8">
       <c r="H765" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="766" spans="8:8">
       <c r="H766" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="767" spans="8:8">
       <c r="H767" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="768" spans="8:8">
       <c r="H768" s="1" t="s">
-        <v>608</v>
+        <v>749</v>
       </c>
     </row>
     <row r="769" spans="8:8">
@@ -7690,77 +7663,77 @@
     </row>
     <row r="818" spans="8:8">
       <c r="H818" s="1" t="s">
-        <v>799</v>
+        <v>710</v>
       </c>
     </row>
     <row r="819" spans="8:8">
       <c r="H819" s="1" t="s">
-        <v>800</v>
+        <v>610</v>
       </c>
     </row>
     <row r="820" spans="8:8">
       <c r="H820" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="821" spans="8:8">
       <c r="H821" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="822" spans="8:8">
       <c r="H822" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="823" spans="8:8">
       <c r="H823" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="824" spans="8:8">
       <c r="H824" s="1" t="s">
-        <v>715</v>
+        <v>803</v>
       </c>
     </row>
     <row r="825" spans="8:8">
       <c r="H825" s="1" t="s">
-        <v>614</v>
+        <v>804</v>
       </c>
     </row>
     <row r="826" spans="8:8">
       <c r="H826" s="1" t="s">
-        <v>805</v>
+        <v>638</v>
       </c>
     </row>
     <row r="827" spans="8:8">
       <c r="H827" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="828" spans="8:8">
       <c r="H828" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="829" spans="8:8">
       <c r="H829" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="830" spans="8:8">
       <c r="H830" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="831" spans="8:8">
       <c r="H831" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="832" spans="8:8">
       <c r="H832" s="1" t="s">
-        <v>642</v>
+        <v>810</v>
       </c>
     </row>
     <row r="833" spans="8:8">
@@ -7800,37 +7773,37 @@
     </row>
     <row r="840" spans="8:8">
       <c r="H840" s="1" t="s">
-        <v>818</v>
+        <v>604</v>
       </c>
     </row>
     <row r="841" spans="8:8">
       <c r="H841" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="842" spans="8:8">
       <c r="H842" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="843" spans="8:8">
       <c r="H843" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="844" spans="8:8">
       <c r="H844" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="845" spans="8:8">
       <c r="H845" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="846" spans="8:8">
       <c r="H846" s="1" t="s">
-        <v>608</v>
+        <v>823</v>
       </c>
     </row>
     <row r="847" spans="8:8">
@@ -7900,37 +7873,37 @@
     </row>
     <row r="860" spans="8:8">
       <c r="H860" s="1" t="s">
-        <v>837</v>
+        <v>784</v>
       </c>
     </row>
     <row r="861" spans="8:8">
       <c r="H861" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="862" spans="8:8">
       <c r="H862" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="863" spans="8:8">
       <c r="H863" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="864" spans="8:8">
       <c r="H864" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="865" spans="8:8">
       <c r="H865" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="866" spans="8:8">
       <c r="H866" s="1" t="s">
-        <v>790</v>
+        <v>842</v>
       </c>
     </row>
     <row r="867" spans="8:8">
@@ -8055,37 +8028,37 @@
     </row>
     <row r="891" spans="8:8">
       <c r="H891" s="1" t="s">
-        <v>867</v>
+        <v>849</v>
       </c>
     </row>
     <row r="892" spans="8:8">
       <c r="H892" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="893" spans="8:8">
       <c r="H893" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="894" spans="8:8">
       <c r="H894" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="895" spans="8:8">
       <c r="H895" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="896" spans="8:8">
       <c r="H896" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="897" spans="8:8">
       <c r="H897" s="1" t="s">
-        <v>855</v>
+        <v>872</v>
       </c>
     </row>
     <row r="898" spans="8:8">
@@ -8095,57 +8068,57 @@
     </row>
     <row r="899" spans="8:8">
       <c r="H899" s="1" t="s">
-        <v>874</v>
+        <v>141</v>
       </c>
     </row>
     <row r="900" spans="8:8">
       <c r="H900" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="901" spans="8:8">
       <c r="H901" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="902" spans="8:8">
       <c r="H902" s="1" t="s">
-        <v>877</v>
+        <v>159</v>
       </c>
     </row>
     <row r="903" spans="8:8">
       <c r="H903" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="904" spans="8:8">
       <c r="H904" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="905" spans="8:8">
       <c r="H905" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="906" spans="8:8">
       <c r="H906" s="1" t="s">
-        <v>141</v>
+        <v>879</v>
       </c>
     </row>
     <row r="907" spans="8:8">
       <c r="H907" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="908" spans="8:8">
       <c r="H908" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="909" spans="8:8">
       <c r="H909" s="1" t="s">
-        <v>159</v>
+        <v>882</v>
       </c>
     </row>
     <row r="910" spans="8:8">
@@ -8270,42 +8243,42 @@
     </row>
     <row r="934" spans="8:8">
       <c r="H934" s="1" t="s">
-        <v>907</v>
+        <v>482</v>
       </c>
     </row>
     <row r="935" spans="8:8">
       <c r="H935" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="936" spans="8:8">
       <c r="H936" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="937" spans="8:8">
       <c r="H937" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="938" spans="8:8">
       <c r="H938" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="939" spans="8:8">
       <c r="H939" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="940" spans="8:8">
       <c r="H940" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="941" spans="8:8">
       <c r="H941" s="1" t="s">
-        <v>486</v>
+        <v>913</v>
       </c>
     </row>
     <row r="942" spans="8:8">
@@ -8330,42 +8303,42 @@
     </row>
     <row r="946" spans="8:8">
       <c r="H946" s="1" t="s">
-        <v>918</v>
+        <v>68</v>
       </c>
     </row>
     <row r="947" spans="8:8">
       <c r="H947" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="948" spans="8:8">
       <c r="H948" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="949" spans="8:8">
       <c r="H949" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="950" spans="8:8">
       <c r="H950" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="951" spans="8:8">
       <c r="H951" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="952" spans="8:8">
       <c r="H952" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="953" spans="8:8">
       <c r="H953" s="1" t="s">
-        <v>68</v>
+        <v>924</v>
       </c>
     </row>
     <row r="954" spans="8:8">
@@ -8390,42 +8363,42 @@
     </row>
     <row r="958" spans="8:8">
       <c r="H958" s="1" t="s">
-        <v>929</v>
+        <v>658</v>
       </c>
     </row>
     <row r="959" spans="8:8">
       <c r="H959" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="960" spans="8:8">
       <c r="H960" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="961" spans="8:8">
       <c r="H961" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="962" spans="8:8">
       <c r="H962" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="963" spans="8:8">
       <c r="H963" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="964" spans="8:8">
       <c r="H964" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="965" spans="8:8">
       <c r="H965" s="1" t="s">
-        <v>662</v>
+        <v>935</v>
       </c>
     </row>
     <row r="966" spans="8:8">
@@ -8490,47 +8463,47 @@
     </row>
     <row r="978" spans="8:8">
       <c r="H978" s="1" t="s">
-        <v>948</v>
+        <v>6</v>
       </c>
     </row>
     <row r="979" spans="8:8">
       <c r="H979" s="1" t="s">
-        <v>949</v>
+        <v>568</v>
       </c>
     </row>
     <row r="980" spans="8:8">
       <c r="H980" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="981" spans="8:8">
       <c r="H981" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="982" spans="8:8">
       <c r="H982" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="983" spans="8:8">
       <c r="H983" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="984" spans="8:8">
       <c r="H984" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="985" spans="8:8">
       <c r="H985" s="1" t="s">
-        <v>6</v>
+        <v>953</v>
       </c>
     </row>
     <row r="986" spans="8:8">
       <c r="H986" s="1" t="s">
-        <v>572</v>
+        <v>954</v>
       </c>
     </row>
     <row r="987" spans="8:8">
@@ -8545,72 +8518,72 @@
     </row>
     <row r="989" spans="8:8">
       <c r="H989" s="1" t="s">
-        <v>957</v>
+        <v>766</v>
       </c>
     </row>
     <row r="990" spans="8:8">
       <c r="H990" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="991" spans="8:8">
       <c r="H991" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="992" spans="8:8">
       <c r="H992" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="993" spans="8:8">
       <c r="H993" s="1" t="s">
-        <v>961</v>
+        <v>913</v>
       </c>
     </row>
     <row r="994" spans="8:8">
       <c r="H994" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="995" spans="8:8">
       <c r="H995" s="1" t="s">
-        <v>963</v>
+        <v>861</v>
       </c>
     </row>
     <row r="996" spans="8:8">
       <c r="H996" s="1" t="s">
-        <v>772</v>
+        <v>961</v>
       </c>
     </row>
     <row r="997" spans="8:8">
       <c r="H997" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="998" spans="8:8">
       <c r="H998" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="999" spans="8:8">
       <c r="H999" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1000" spans="8:8">
       <c r="H1000" s="1" t="s">
-        <v>920</v>
+        <v>965</v>
       </c>
     </row>
     <row r="1001" spans="8:8">
       <c r="H1001" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="1002" spans="8:8">
       <c r="H1002" s="1" t="s">
-        <v>867</v>
+        <v>967</v>
       </c>
     </row>
     <row r="1003" spans="8:8">
@@ -8625,87 +8598,87 @@
     </row>
     <row r="1005" spans="8:8">
       <c r="H1005" s="1" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
     </row>
     <row r="1006" spans="8:8">
       <c r="H1006" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="1007" spans="8:8">
       <c r="H1007" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="1008" spans="8:8">
       <c r="H1008" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1009" spans="8:8">
       <c r="H1009" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1010" spans="8:8">
       <c r="H1010" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="1011" spans="8:8">
       <c r="H1011" s="1" t="s">
-        <v>976</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1012" spans="8:8">
       <c r="H1012" s="1" t="s">
-        <v>967</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1013" spans="8:8">
       <c r="H1013" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="1014" spans="8:8">
       <c r="H1014" s="1" t="s">
-        <v>978</v>
+        <v>164</v>
       </c>
     </row>
     <row r="1015" spans="8:8">
       <c r="H1015" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1016" spans="8:8">
       <c r="H1016" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1017" spans="8:8">
       <c r="H1017" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="1018" spans="8:8">
       <c r="H1018" s="1" t="s">
-        <v>141</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1019" spans="8:8">
       <c r="H1019" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="1020" spans="8:8">
       <c r="H1020" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1021" spans="8:8">
       <c r="H1021" s="1" t="s">
-        <v>164</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1022" spans="8:8">
@@ -8755,102 +8728,102 @@
     </row>
     <row r="1031" spans="8:8">
       <c r="H1031" s="1" t="s">
-        <v>993</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1032" spans="8:8">
       <c r="H1032" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1033" spans="8:8">
       <c r="H1033" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1034" spans="8:8">
       <c r="H1034" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="1035" spans="8:8">
       <c r="H1035" s="1" t="s">
-        <v>997</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1036" spans="8:8">
       <c r="H1036" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1037" spans="8:8">
       <c r="H1037" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1038" spans="8:8">
       <c r="H1038" s="1" t="s">
-        <v>141</v>
+        <v>998</v>
       </c>
     </row>
     <row r="1039" spans="8:8">
       <c r="H1039" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="1040" spans="8:8">
       <c r="H1040" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1041" spans="8:8">
       <c r="H1041" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1042" spans="8:8">
       <c r="H1042" s="1" t="s">
-        <v>58</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1043" spans="8:8">
       <c r="H1043" s="1" t="s">
-        <v>1003</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1044" spans="8:8">
       <c r="H1044" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1045" spans="8:8">
       <c r="H1045" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1046" spans="8:8">
       <c r="H1046" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1047" spans="8:8">
       <c r="H1047" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1048" spans="8:8">
       <c r="H1048" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="1049" spans="8:8">
       <c r="H1049" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="1050" spans="8:8">
       <c r="H1050" s="1" t="s">
-        <v>466</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="1051" spans="8:8">
@@ -8895,42 +8868,42 @@
     </row>
     <row r="1059" spans="8:8">
       <c r="H1059" s="1" t="s">
-        <v>1018</v>
+        <v>968</v>
       </c>
     </row>
     <row r="1060" spans="8:8">
       <c r="H1060" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1061" spans="8:8">
       <c r="H1061" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1062" spans="8:8">
       <c r="H1062" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1063" spans="8:8">
       <c r="H1063" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1064" spans="8:8">
       <c r="H1064" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1065" spans="8:8">
       <c r="H1065" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1066" spans="8:8">
       <c r="H1066" s="1" t="s">
-        <v>975</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1067" spans="8:8">
@@ -9020,42 +8993,42 @@
     </row>
     <row r="1084" spans="8:8">
       <c r="H1084" s="1" t="s">
-        <v>1042</v>
+        <v>970</v>
       </c>
     </row>
     <row r="1085" spans="8:8">
       <c r="H1085" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1086" spans="8:8">
       <c r="H1086" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="1087" spans="8:8">
       <c r="H1087" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="1088" spans="8:8">
       <c r="H1088" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1089" spans="8:8">
       <c r="H1089" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="1090" spans="8:8">
       <c r="H1090" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1091" spans="8:8">
       <c r="H1091" s="1" t="s">
-        <v>977</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1092" spans="8:8">
@@ -9120,67 +9093,27 @@
     </row>
     <row r="1104" spans="8:8">
       <c r="H1104" s="1" t="s">
-        <v>1061</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1105" spans="8:8">
       <c r="H1105" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1106" spans="8:8">
       <c r="H1106" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1107" spans="8:8">
       <c r="H1107" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1108" spans="8:8">
       <c r="H1108" s="1" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="1109" spans="8:8">
-      <c r="H1109" s="1" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="1110" spans="8:8">
-      <c r="H1110" s="1" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="1111" spans="8:8">
-      <c r="H1111" s="1" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="1112" spans="8:8">
-      <c r="H1112" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="1113" spans="8:8">
-      <c r="H1113" s="1" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="1114" spans="8:8">
-      <c r="H1114" s="1" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="1115" spans="8:8">
-      <c r="H1115" s="1" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="1116" spans="8:8">
-      <c r="H1116" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
     </row>
   </sheetData>
